--- a/assets/teaching_exp.xlsx
+++ b/assets/teaching_exp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dr JS\Downloads\CGMC-main-main-main\drjss\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8949605-6665-4FF9-94F9-336FA5D55DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC35346C-D43D-4545-AADA-38AF6B4D226B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,7 +136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,13 +145,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -247,10 +240,10 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -535,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
